--- a/DiffExcel/Test/OldFile.xlsx
+++ b/DiffExcel/Test/OldFile.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF550433-0DA9-4924-98E3-1157C8FD5A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C02CB-2108-4695-B8C4-248159029363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>NewA1</t>
   </si>
@@ -121,6 +122,9 @@
   </si>
   <si>
     <t>OldB1</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -482,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3039B75-5B57-4A54-9F56-2B4FF168AE10}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -601,4 +605,223 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1098-DD45-4CD3-A639-7E9C574D8A5E}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DiffExcel/Test/OldFile.xlsx
+++ b/DiffExcel/Test/OldFile.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C02CB-2108-4695-B8C4-248159029363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA350A-ED8D-45EC-8F25-09D23B1F3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>NewA1</t>
   </si>
@@ -125,6 +126,36 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>NewB1</t>
+  </si>
+  <si>
+    <t>NewA6</t>
+  </si>
+  <si>
+    <t>NewA7</t>
+  </si>
+  <si>
+    <t>NewA8</t>
+  </si>
+  <si>
+    <t>NewB8</t>
+  </si>
+  <si>
+    <t>NewA9</t>
+  </si>
+  <si>
+    <t>NewB9</t>
+  </si>
+  <si>
+    <t>NewA10</t>
+  </si>
+  <si>
+    <t>NewB10</t>
+  </si>
+  <si>
+    <t>OldC11</t>
   </si>
 </sst>
 </file>
@@ -608,36 +639,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68F650-3DCC-4CB1-835E-3B187577A645}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1098-DD45-4CD3-A639-7E9C574D8A5E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>29</v>
       </c>
@@ -650,11 +771,11 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -667,11 +788,11 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -684,11 +805,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -701,11 +822,11 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -718,11 +839,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -735,11 +856,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -752,11 +873,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -769,11 +890,11 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -786,11 +907,11 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -803,11 +924,11 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -818,6 +939,26 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
     </row>

--- a/DiffExcel/Test/OldFile.xlsx
+++ b/DiffExcel/Test/OldFile.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA350A-ED8D-45EC-8F25-09D23B1F3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A3CF43-75A4-4CC3-B745-7AED4B5739D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="MissingSheet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="43">
   <si>
     <t>NewA1</t>
   </si>
@@ -156,6 +158,15 @@
   </si>
   <si>
     <t>OldC11</t>
+  </si>
+  <si>
+    <t>OldA1</t>
+  </si>
+  <si>
+    <t>OldA2</t>
+  </si>
+  <si>
+    <t>missing in new</t>
   </si>
 </sst>
 </file>
@@ -752,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2D1098-DD45-4CD3-A639-7E9C574D8A5E}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -965,4 +976,254 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EFCE73-C1D3-4295-BC81-1C335BAC5F55}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFD3014-3B91-44D0-BD75-C09F7D7BBACE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>